--- a/Results/time/NEW charts, calculations.xlsx
+++ b/Results/time/NEW charts, calculations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="18">
   <si>
     <t>N</t>
   </si>
@@ -117,6 +117,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -129,12 +130,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -347,17 +445,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="165682176"/>
-        <c:axId val="165700352"/>
+        <c:axId val="163326976"/>
+        <c:axId val="163345152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165682176"/>
+        <c:axId val="163326976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165700352"/>
+        <c:crossAx val="163345152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -365,7 +463,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165700352"/>
+        <c:axId val="163345152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -373,7 +471,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165682176"/>
+        <c:crossAx val="163326976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -386,7 +484,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -674,17 +772,17 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="165737600"/>
-        <c:axId val="165739136"/>
+        <c:axId val="164234368"/>
+        <c:axId val="164235904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165737600"/>
+        <c:axId val="164234368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165739136"/>
+        <c:crossAx val="164235904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -692,7 +790,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165739136"/>
+        <c:axId val="164235904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,20 +798,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165737600"/>
+        <c:crossAx val="164234368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -909,24 +1006,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="166666240"/>
-        <c:axId val="166667776"/>
+        <c:axId val="164438016"/>
+        <c:axId val="164439552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="166666240"/>
+        <c:axId val="164438016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166667776"/>
+        <c:crossAx val="164439552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166667776"/>
+        <c:axId val="164439552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,20 +1031,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166666240"/>
+        <c:crossAx val="164438016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1345,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -1363,59 +1459,64 @@
     <col min="10" max="10" width="4.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="14.25" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5"/>
       <c r="H3" s="1"/>
       <c r="J3" t="s">
         <v>0</v>
@@ -1426,7 +1527,7 @@
       <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="14.25" customHeight="1">
@@ -1445,11 +1546,11 @@
       <c r="E4">
         <v>4.4996799999999997</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <f>2*A4^3*D4/E4/1000000</f>
         <v>49.956548021192624</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <f t="shared" ref="G4:G51" si="0">L4/E4</f>
         <v>17.841046474415958</v>
       </c>
@@ -1461,6 +1562,10 @@
       </c>
       <c r="L4">
         <v>80.278999999999996</v>
+      </c>
+      <c r="M4" s="4">
+        <f>2*J4^3*K4/L4/1000000</f>
+        <v>2.8000906837404553</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" customHeight="1">
@@ -1479,11 +1584,11 @@
       <c r="E5">
         <v>6.5892799999999996</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F51" si="1">2*A5^3*D5/E5/1000000</f>
         <v>34.114270451399854</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <f t="shared" si="0"/>
         <v>12.183273438069106</v>
       </c>
@@ -1495,6 +1600,10 @@
       </c>
       <c r="L5">
         <v>80.278999999999996</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ref="M5:M51" si="2">2*J5^3*K5/L5/1000000</f>
+        <v>2.8000906837404553</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.25" customHeight="1">
@@ -1513,11 +1622,11 @@
       <c r="E6">
         <v>4.9591399999999997</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>45.328117375190054</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>16.188089063829615</v>
       </c>
@@ -1529,6 +1638,10 @@
       </c>
       <c r="L6">
         <v>80.278999999999996</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8000906837404553</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1">
@@ -1547,11 +1660,11 @@
       <c r="E7">
         <v>9.0526999999999997</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>24.831097904492584</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>8.8679620444729199</v>
       </c>
@@ -1563,6 +1676,10 @@
       </c>
       <c r="L7">
         <v>80.278999999999996</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="2"/>
+        <v>2.8000906837404553</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.25" customHeight="1">
@@ -1581,11 +1698,11 @@
       <c r="E8">
         <v>2.8720599999999998</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>39.133667123945884</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>14.672047241352898</v>
       </c>
@@ -1597,6 +1714,10 @@
       </c>
       <c r="L8">
         <v>42.139000000000003</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6672260850993137</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1">
@@ -1615,11 +1736,11 @@
       <c r="E9">
         <v>3.4786899999999998</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>32.309357832977355</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <f t="shared" si="0"/>
         <v>12.113468000885392</v>
       </c>
@@ -1631,6 +1752,10 @@
       </c>
       <c r="L9">
         <v>42.139000000000003</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6672260850993137</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.25" customHeight="1">
@@ -1649,11 +1774,11 @@
       <c r="E10">
         <v>3.9933100000000001</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
         <v>28.145633572149418</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <f t="shared" si="0"/>
         <v>10.55239888713874</v>
       </c>
@@ -1665,6 +1790,10 @@
       </c>
       <c r="L10">
         <v>42.139000000000003</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6672260850993137</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1">
@@ -1683,11 +1812,11 @@
       <c r="E11">
         <v>4.1412500000000003</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
         <v>27.140172653184422</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>10.175430123754905</v>
       </c>
@@ -1699,6 +1828,10 @@
       </c>
       <c r="L11">
         <v>42.139000000000003</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="2"/>
+        <v>2.6672260850993137</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25" customHeight="1">
@@ -1717,11 +1850,11 @@
       <c r="E12">
         <v>1.7275799999999999</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <f t="shared" si="1"/>
         <v>13.01175517197467</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="4">
         <f t="shared" si="0"/>
         <v>5.2292802648791961</v>
       </c>
@@ -1733,6 +1866,10 @@
       </c>
       <c r="L12">
         <v>9.0340000000000007</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4882497232676553</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.25" customHeight="1">
@@ -1751,11 +1888,11 @@
       <c r="E13">
         <v>0.82076800000000005</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="4">
         <f t="shared" si="1"/>
         <v>27.387578463097974</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>11.006764396272759</v>
       </c>
@@ -1767,6 +1904,10 @@
       </c>
       <c r="L13">
         <v>9.0340000000000007</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4882497232676553</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.25" customHeight="1">
@@ -1785,11 +1926,11 @@
       <c r="E14">
         <v>1.7937000000000001</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="4">
         <f t="shared" si="1"/>
         <v>12.532111278363159</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>5.0365166973295423</v>
       </c>
@@ -1801,6 +1942,10 @@
       </c>
       <c r="L14">
         <v>9.0340000000000007</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4882497232676553</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.25" customHeight="1">
@@ -1819,11 +1964,11 @@
       <c r="E15">
         <v>0.87241599999999997</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="4">
         <f t="shared" si="1"/>
         <v>25.76620327916957</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>10.355151670762574</v>
       </c>
@@ -1835,6 +1980,10 @@
       </c>
       <c r="L15">
         <v>9.0340000000000007</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="2"/>
+        <v>2.4882497232676553</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.25" customHeight="1">
@@ -1853,11 +2002,11 @@
       <c r="E16">
         <v>148.78299999999999</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="4">
         <f t="shared" si="1"/>
         <v>188.85598489074695</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="4">
         <f t="shared" si="0"/>
         <v>45.371688969841991</v>
       </c>
@@ -1870,8 +2019,12 @@
       <c r="L16">
         <v>6750.5360000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M16" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1624191027201398</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17">
         <v>1120</v>
       </c>
@@ -1887,11 +2040,11 @@
       <c r="E17">
         <v>232.46700000000001</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
         <v>120.87117741442871</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="4">
         <f t="shared" si="0"/>
         <v>29.038685060675277</v>
       </c>
@@ -1904,8 +2057,12 @@
       <c r="L17">
         <v>6750.5360000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M17" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1624191027201398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18">
         <v>1120</v>
       </c>
@@ -1921,11 +2078,11 @@
       <c r="E18">
         <v>277.64699999999999</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="4">
         <f t="shared" si="1"/>
         <v>101.2024621191657</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="4">
         <f t="shared" si="0"/>
         <v>24.313376337579733</v>
       </c>
@@ -1938,8 +2095,12 @@
       <c r="L18">
         <v>6750.5360000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M18" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1624191027201398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" customHeight="1">
       <c r="A19">
         <v>1120</v>
       </c>
@@ -1955,11 +2116,11 @@
       <c r="E19">
         <v>358.39800000000002</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <f t="shared" si="1"/>
         <v>78.40043750244142</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="4">
         <f t="shared" si="0"/>
         <v>18.835306000591519</v>
       </c>
@@ -1972,8 +2133,12 @@
       <c r="L19">
         <v>6750.5360000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M19" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1624191027201398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1">
       <c r="A20">
         <v>1120</v>
       </c>
@@ -1989,11 +2154,11 @@
       <c r="E20">
         <v>76.591300000000004</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="4">
         <f t="shared" si="1"/>
         <v>183.43179969526565</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="4">
         <f t="shared" si="0"/>
         <v>44.341615823207079</v>
       </c>
@@ -2006,8 +2171,12 @@
       <c r="L20">
         <v>3396.1820000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M20" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1367865444195866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21">
         <v>1120</v>
       </c>
@@ -2023,11 +2192,11 @@
       <c r="E21">
         <v>115.322</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <f t="shared" si="1"/>
         <v>121.82653786788296</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="4">
         <f t="shared" si="0"/>
         <v>29.449558627148335</v>
       </c>
@@ -2040,8 +2209,12 @@
       <c r="L21">
         <v>3396.1820000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M21" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1367865444195866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22">
         <v>1120</v>
       </c>
@@ -2057,11 +2230,11 @@
       <c r="E22">
         <v>144.852</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
         <v>96.990583492116087</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="4">
         <f t="shared" si="0"/>
         <v>23.44587579046199</v>
       </c>
@@ -2074,8 +2247,12 @@
       <c r="L22">
         <v>3396.1820000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M22" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1367865444195866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23">
         <v>1120</v>
       </c>
@@ -2091,11 +2268,11 @@
       <c r="E23">
         <v>177.62899999999999</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="4">
         <f t="shared" si="1"/>
         <v>79.093391281828985</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="4">
         <f t="shared" si="0"/>
         <v>19.119524401983913</v>
       </c>
@@ -2108,8 +2285,12 @@
       <c r="L23">
         <v>3396.1820000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M23" s="4">
+        <f t="shared" si="2"/>
+        <v>4.1367865444195866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24">
         <v>1120</v>
       </c>
@@ -2125,11 +2306,11 @@
       <c r="E24">
         <v>18.532299999999999</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="4">
         <f t="shared" si="1"/>
         <v>151.61938885081724</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="4">
         <f t="shared" si="0"/>
         <v>37.093938690826292</v>
       </c>
@@ -2142,8 +2323,12 @@
       <c r="L24">
         <v>687.43600000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M24" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0874437765842924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25">
         <v>1120</v>
       </c>
@@ -2159,11 +2344,11 @@
       <c r="E25">
         <v>22.776399999999999</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="4">
         <f t="shared" si="1"/>
         <v>123.36699390597285</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="4">
         <f t="shared" si="0"/>
         <v>30.181942712632377</v>
       </c>
@@ -2176,8 +2361,12 @@
       <c r="L25">
         <v>687.43600000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M25" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0874437765842924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26">
         <v>1120</v>
       </c>
@@ -2193,11 +2382,11 @@
       <c r="E26">
         <v>31.626000000000001</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="4">
         <f t="shared" si="1"/>
         <v>88.846392208942007</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="4">
         <f t="shared" si="0"/>
         <v>21.736419401758049</v>
       </c>
@@ -2210,8 +2399,12 @@
       <c r="L26">
         <v>687.43600000000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M26" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0874437765842924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27">
         <v>1120</v>
       </c>
@@ -2227,11 +2420,11 @@
       <c r="E27">
         <v>36.366799999999998</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="4">
         <f t="shared" si="1"/>
         <v>77.264318004333632</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="4">
         <f t="shared" si="0"/>
         <v>18.902845452445639</v>
       </c>
@@ -2244,8 +2437,12 @@
       <c r="L27">
         <v>687.43600000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M27" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0874437765842924</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" customHeight="1">
       <c r="A28">
         <v>864</v>
       </c>
@@ -2261,11 +2458,11 @@
       <c r="E28">
         <v>36.3386</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="4">
         <f t="shared" si="1"/>
         <v>354.97930244973668</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="4">
         <f t="shared" si="0"/>
         <v>75.487938445619818</v>
       </c>
@@ -2278,8 +2475,12 @@
       <c r="L28">
         <v>2743.1260000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M28" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7024638605736664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" customHeight="1">
       <c r="A29">
         <v>864</v>
       </c>
@@ -2295,11 +2496,11 @@
       <c r="E29">
         <v>59.063699999999997</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="4">
         <f t="shared" si="1"/>
         <v>218.39896383057615</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="4">
         <f t="shared" si="0"/>
         <v>46.443517761332259</v>
       </c>
@@ -2312,8 +2513,12 @@
       <c r="L29">
         <v>2743.1260000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M29" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7024638605736664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" customHeight="1">
       <c r="A30">
         <v>864</v>
       </c>
@@ -2329,11 +2534,11 @@
       <c r="E30">
         <v>65.921499999999995</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="4">
         <f t="shared" si="1"/>
         <v>195.67896482938042</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="4">
         <f t="shared" si="0"/>
         <v>41.612008221900297</v>
       </c>
@@ -2346,8 +2551,12 @@
       <c r="L30">
         <v>2743.1260000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M30" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7024638605736664</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14.25" customHeight="1">
       <c r="A31">
         <v>864</v>
       </c>
@@ -2363,11 +2572,11 @@
       <c r="E31">
         <v>88.133499999999998</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="4">
         <f t="shared" si="1"/>
         <v>146.3626303278549</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="4">
         <f t="shared" si="0"/>
         <v>31.124668826269243</v>
       </c>
@@ -2380,8 +2589,12 @@
       <c r="L31">
         <v>2743.1260000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M31" s="4">
+        <f t="shared" si="2"/>
+        <v>4.7024638605736664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" customHeight="1">
       <c r="A32">
         <v>864</v>
       </c>
@@ -2397,11 +2610,11 @@
       <c r="E32">
         <v>9.8998399999999993</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="4">
         <f t="shared" si="1"/>
         <v>651.49794744157487</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="4">
         <f t="shared" si="0"/>
         <v>140.52964492355434</v>
       </c>
@@ -2414,8 +2627,12 @@
       <c r="L32">
         <v>1391.221</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M32" s="4">
+        <f t="shared" si="2"/>
+        <v>4.6360178864465098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14.25" customHeight="1">
       <c r="A33">
         <v>864</v>
       </c>
@@ -2431,11 +2648,11 @@
       <c r="E33">
         <v>12.0329</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="4">
         <f t="shared" si="1"/>
         <v>536.00756592342668</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="4">
         <f t="shared" si="0"/>
         <v>115.61809705058631</v>
       </c>
@@ -2448,8 +2665,12 @@
       <c r="L33">
         <v>1391.221</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M33" s="4">
+        <f t="shared" si="2"/>
+        <v>4.6360178864465098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14.25" customHeight="1">
       <c r="A34">
         <v>864</v>
       </c>
@@ -2465,11 +2686,11 @@
       <c r="E34">
         <v>15.7338</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="4">
         <f t="shared" si="1"/>
         <v>409.92801738931473</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="4">
         <f t="shared" si="0"/>
         <v>88.422440859805008</v>
       </c>
@@ -2482,8 +2703,12 @@
       <c r="L34">
         <v>1391.221</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M34" s="4">
+        <f t="shared" si="2"/>
+        <v>4.6360178864465098</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14.25" customHeight="1">
       <c r="A35">
         <v>864</v>
       </c>
@@ -2499,11 +2724,11 @@
       <c r="E35">
         <v>17.904599999999999</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="4">
         <f t="shared" si="1"/>
         <v>360.22728460842467</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="4">
         <f t="shared" si="0"/>
         <v>77.701875495682685</v>
       </c>
@@ -2516,8 +2741,12 @@
       <c r="L35">
         <v>1391.221</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M35" s="4">
+        <f t="shared" si="2"/>
+        <v>4.6360178864465098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="14.25" customHeight="1">
       <c r="A36">
         <v>864</v>
       </c>
@@ -2533,11 +2762,11 @@
       <c r="E36">
         <v>69.9345</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="4">
         <f t="shared" si="1"/>
         <v>18.445046264719128</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="4">
         <f t="shared" si="0"/>
         <v>4.0213056502870534</v>
       </c>
@@ -2550,8 +2779,12 @@
       <c r="L36">
         <v>281.22799999999995</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M36" s="4">
+        <f t="shared" si="2"/>
+        <v>4.5868302160524568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="14.25" customHeight="1">
       <c r="A37">
         <v>864</v>
       </c>
@@ -2567,11 +2800,11 @@
       <c r="E37">
         <v>120.85</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="4">
         <f t="shared" si="1"/>
         <v>10.673935357881673</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="4">
         <f t="shared" si="0"/>
         <v>2.3270831609433178</v>
       </c>
@@ -2584,8 +2817,12 @@
       <c r="L37">
         <v>281.22799999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M37" s="4">
+        <f t="shared" si="2"/>
+        <v>4.5868302160524568</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="14.25" customHeight="1">
       <c r="A38">
         <v>864</v>
       </c>
@@ -2601,11 +2838,11 @@
       <c r="E38">
         <v>129.023</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="4">
         <f t="shared" si="1"/>
         <v>9.9977917735597526</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="4">
         <f t="shared" si="0"/>
         <v>2.1796733915658444</v>
       </c>
@@ -2618,8 +2855,12 @@
       <c r="L38">
         <v>281.22799999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M38" s="4">
+        <f t="shared" si="2"/>
+        <v>4.5868302160524568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14.25" customHeight="1">
       <c r="A39">
         <v>864</v>
       </c>
@@ -2635,11 +2876,11 @@
       <c r="E39">
         <v>176.78299999999999</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="4">
         <f t="shared" si="1"/>
         <v>7.2967711148696432</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="4">
         <f t="shared" si="0"/>
         <v>1.5908090710079588</v>
       </c>
@@ -2652,8 +2893,12 @@
       <c r="L39">
         <v>281.22799999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M39" s="4">
+        <f t="shared" si="2"/>
+        <v>4.5868302160524568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14.25" customHeight="1">
       <c r="A40">
         <v>1728</v>
       </c>
@@ -2669,11 +2914,11 @@
       <c r="E40">
         <v>538.58000000000004</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="4">
         <f t="shared" si="1"/>
         <v>191.60683100003715</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="4">
         <f t="shared" si="0"/>
         <v>75.35989082401872</v>
       </c>
@@ -2686,8 +2931,12 @@
       <c r="L40">
         <v>40587.33</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M40" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5425571733839107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14.25" customHeight="1">
       <c r="A41">
         <v>1728</v>
       </c>
@@ -2703,11 +2952,11 @@
       <c r="E41">
         <v>721.52499999999998</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="4">
         <f t="shared" si="1"/>
         <v>143.02429858979247</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="4">
         <f t="shared" si="0"/>
         <v>56.252146495270438</v>
       </c>
@@ -2720,8 +2969,12 @@
       <c r="L41">
         <v>40587.33</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M41" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5425571733839107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14.25" customHeight="1">
       <c r="A42">
         <v>1728</v>
       </c>
@@ -2737,11 +2990,11 @@
       <c r="E42">
         <v>1873.81</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="4">
         <f t="shared" si="1"/>
         <v>55.072609837710338</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="4">
         <f t="shared" si="0"/>
         <v>21.660323085051314</v>
       </c>
@@ -2754,8 +3007,12 @@
       <c r="L42">
         <v>40587.33</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M42" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5425571733839107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="14.25" customHeight="1">
       <c r="A43">
         <v>1728</v>
       </c>
@@ -2771,11 +3028,11 @@
       <c r="E43">
         <v>2056.4699999999998</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="4">
         <f t="shared" si="1"/>
         <v>50.180944550613432</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="4">
         <f t="shared" si="0"/>
         <v>19.736407533297353</v>
       </c>
@@ -2788,8 +3045,12 @@
       <c r="L43">
         <v>40587.33</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M43" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5425571733839107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="14.25" customHeight="1">
       <c r="A44">
         <v>1728</v>
       </c>
@@ -2805,11 +3066,11 @@
       <c r="E44">
         <v>273.57</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="4">
         <f t="shared" si="1"/>
         <v>188.60914398508609</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="4">
         <f t="shared" si="0"/>
         <v>74.372445809116499</v>
       </c>
@@ -2822,8 +3083,12 @@
       <c r="L44">
         <v>20346.07</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M44" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5360083554219561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="14.25" customHeight="1">
       <c r="A45">
         <v>1728</v>
       </c>
@@ -2839,11 +3104,11 @@
       <c r="E45">
         <v>360.71499999999997</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="4">
         <f t="shared" si="1"/>
         <v>143.04313244528231</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="4">
         <f t="shared" si="0"/>
         <v>56.40483484191121</v>
       </c>
@@ -2856,8 +3121,12 @@
       <c r="L45">
         <v>20346.07</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M45" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5360083554219561</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14.25" customHeight="1">
       <c r="A46">
         <v>1728</v>
       </c>
@@ -2873,11 +3142,11 @@
       <c r="E46">
         <v>941.95100000000002</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="4">
         <f t="shared" si="1"/>
         <v>54.777587708914794</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="4">
         <f t="shared" si="0"/>
         <v>21.599923987553492</v>
       </c>
@@ -2890,8 +3159,12 @@
       <c r="L46">
         <v>20346.07</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M46" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5360083554219561</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="14.25" customHeight="1">
       <c r="A47">
         <v>1728</v>
       </c>
@@ -2907,11 +3180,11 @@
       <c r="E47">
         <v>1024.74</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="4">
         <f t="shared" si="1"/>
         <v>50.352092745476902</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="4">
         <f t="shared" si="0"/>
         <v>19.854860745164626</v>
       </c>
@@ -2924,8 +3197,12 @@
       <c r="L47">
         <v>20346.07</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M47" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5360083554219561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="14.25" customHeight="1">
       <c r="A48">
         <v>1728</v>
       </c>
@@ -2941,11 +3218,11 @@
       <c r="E48">
         <v>61.219700000000003</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="4">
         <f t="shared" si="1"/>
         <v>168.56601231302994</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="4">
         <f t="shared" si="0"/>
         <v>66.515533398562866</v>
       </c>
@@ -2958,8 +3235,12 @@
       <c r="L48">
         <v>4072.0609999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M48" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5342352936264958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="14.25" customHeight="1">
       <c r="A49">
         <v>1728</v>
       </c>
@@ -2975,11 +3256,11 @@
       <c r="E49">
         <v>72.203299999999999</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="4">
         <f t="shared" si="1"/>
         <v>142.92367113414485</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="4">
         <f t="shared" si="0"/>
         <v>56.397159132615819</v>
       </c>
@@ -2992,8 +3273,12 @@
       <c r="L49">
         <v>4072.0609999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M49" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5342352936264958</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="14.25" customHeight="1">
       <c r="A50">
         <v>1728</v>
       </c>
@@ -3009,11 +3294,11 @@
       <c r="E50">
         <v>191.03</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="4">
         <f t="shared" si="1"/>
         <v>54.020628718002406</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="4">
         <f t="shared" si="0"/>
         <v>21.316342982777574</v>
       </c>
@@ -3026,8 +3311,12 @@
       <c r="L50">
         <v>4072.0609999999997</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M50" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5342352936264958</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="14.25" customHeight="1">
       <c r="A51">
         <v>1728</v>
       </c>
@@ -3043,11 +3332,11 @@
       <c r="E51">
         <v>207.458</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="4">
         <f t="shared" si="1"/>
         <v>49.742891110489836</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="4">
         <f t="shared" si="0"/>
         <v>19.628363331373095</v>
       </c>
@@ -3060,10 +3349,15 @@
       <c r="L51">
         <v>4072.0609999999997</v>
       </c>
+      <c r="M51" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5342352936264958</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:E51"/>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="M1:M3"/>
     <mergeCell ref="J1:L2"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F3"/>
@@ -3075,8 +3369,13 @@
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F51">
-    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="10"/>
-    <cfRule type="top10" dxfId="0" priority="2" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="4" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="5" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G51">
+    <cfRule type="top10" dxfId="2" priority="3" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="2" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3086,7 +3385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
